--- a/config_6.1/act_hhl_ty_config.xlsx
+++ b/config_6.1/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>line|</t>
   </si>
@@ -106,6 +106,9 @@
     <t>19,20,21,22,23,24,25,26,27,28</t>
   </si>
   <si>
+    <t>act_012_hhl_</t>
+  </si>
+  <si>
     <t>29,30,31,32,33,34,35,36,37,38</t>
   </si>
   <si>
@@ -455,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -492,6 +495,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -501,25 +519,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,38 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,22 +547,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -605,16 +587,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +604,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +619,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,37 +666,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,139 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,11 +856,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,26 +923,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,45 +951,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -956,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1523,8 +1526,8 @@
   <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1683,7 +1686,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>13</v>
@@ -1695,7 +1698,7 @@
         <v>1623081599</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -1715,7 +1718,7 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -1733,22 +1736,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1759,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="11">
         <v>96000</v>
@@ -1772,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:7">
@@ -1780,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="11">
         <v>60000</v>
@@ -1793,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:7">
@@ -1801,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11">
         <v>42000</v>
@@ -1814,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:7">
@@ -1822,10 +1825,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11">
         <v>30000</v>
@@ -1835,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
@@ -1843,10 +1846,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10">
         <v>24000</v>
@@ -1856,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
@@ -1864,10 +1867,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10">
         <v>12000</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
@@ -1885,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="10">
         <v>9000</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:7">
@@ -1906,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11">
         <v>6000</v>
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:7">
@@ -1927,10 +1930,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="11">
         <v>3000</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:7">
@@ -1948,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11">
         <v>2800</v>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1969,10 +1972,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="16">
         <v>1080000</v>
@@ -1982,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1990,10 +1993,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="16">
         <v>880000</v>
@@ -2003,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2011,10 +2014,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="16">
         <v>130000</v>
@@ -2030,10 +2033,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="16">
         <v>60000</v>
@@ -2049,10 +2052,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15">
         <v>18000</v>
@@ -2068,10 +2071,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="15">
         <v>8000</v>
@@ -2087,10 +2090,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="15">
         <v>7200</v>
@@ -2106,10 +2109,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="16">
         <v>3666</v>
@@ -2125,10 +2128,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5">
         <v>300000</v>
@@ -2137,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2145,10 +2148,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5">
         <v>60000</v>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2165,10 +2168,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="5">
         <v>42000</v>
@@ -2177,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2185,10 +2188,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5">
         <v>30000</v>
@@ -2197,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2205,10 +2208,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5">
         <v>24000</v>
@@ -2217,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2225,10 +2228,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5">
         <v>12000</v>
@@ -2237,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2245,10 +2248,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="5">
         <v>9000</v>
@@ -2257,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2265,10 +2268,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5">
         <v>6000</v>
@@ -2277,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2285,10 +2288,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="5">
         <v>3000</v>
@@ -2297,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2305,10 +2308,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="5">
         <v>1200</v>
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2325,10 +2328,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="5">
         <v>120000</v>
@@ -2337,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2345,10 +2348,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="5">
         <v>60000</v>
@@ -2357,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2365,10 +2368,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5">
         <v>40000</v>
@@ -2377,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2385,10 +2388,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="5">
         <v>30000</v>
@@ -2397,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2405,10 +2408,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="5">
         <v>24000</v>
@@ -2417,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2425,10 +2428,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="5">
         <v>15000</v>
@@ -2437,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2445,10 +2448,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" s="5">
         <v>9000</v>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2465,10 +2468,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="5">
         <v>6000</v>
@@ -2477,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2485,10 +2488,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5">
         <v>3000</v>
@@ -2497,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2505,10 +2508,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" s="5">
         <v>1800</v>
@@ -2517,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2547,19 +2550,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2570,7 +2573,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -2584,7 +2587,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -2598,7 +2601,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -2612,7 +2615,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -2626,7 +2629,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -2640,7 +2643,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -2654,7 +2657,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -2668,7 +2671,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>

--- a/config_6.1/act_hhl_ty_config.xlsx
+++ b/config_6.1/act_hhl_ty_config.xlsx
@@ -458,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -495,11 +495,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,60 +532,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -581,6 +542,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,8 +579,46 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,21 +633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,67 +666,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,109 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +851,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -878,21 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -908,26 +932,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,15 +951,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -959,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1669,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>16</v>
@@ -1701,7 +1701,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>16</v>

--- a/config_6.1/act_hhl_ty_config.xlsx
+++ b/config_6.1/act_hhl_ty_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>line|</t>
   </si>
@@ -88,9 +88,6 @@
     <t>help_info</t>
   </si>
   <si>
-    <t>cpl_cjj</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -244,10 +241,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -276,6 +273,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -283,6 +288,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -291,7 +335,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,8 +372,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,97 +403,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -440,61 +437,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,97 +575,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,21 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,11 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +673,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -692,6 +695,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,21 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -736,7 +733,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,133 +742,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1283,13 +1280,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1370,13 +1367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="3:9">
       <c r="C3" s="13"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1384,24 +1375,9 @@
       <c r="G3" s="13"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
+    <row r="4" spans="4:5">
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1414,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1432,22 +1408,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -1458,10 +1434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>120000</v>
@@ -1470,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1478,10 +1454,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="5">
         <v>60000</v>
@@ -1490,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1498,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="5">
         <v>40000</v>
@@ -1510,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1518,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="5">
         <v>30000</v>
@@ -1530,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1538,10 +1514,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="5">
         <v>24000</v>
@@ -1550,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1558,10 +1534,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D7" s="5">
         <v>15000</v>
@@ -1570,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1578,10 +1554,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>9000</v>
@@ -1590,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1598,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="5">
         <v>6000</v>
@@ -1610,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1618,10 +1594,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="5">
         <v>3000</v>
@@ -1630,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1638,10 +1614,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="5">
         <v>1800</v>
@@ -1650,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1727,81 +1703,61 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="5"/>
       <c r="F20" s="13"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="5"/>
       <c r="F21" s="13"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
       <c r="F22" s="13"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="5"/>
       <c r="F23" s="13"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="5"/>
       <c r="F24" s="13"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="5"/>
       <c r="F25" s="13"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="5"/>
       <c r="F26" s="13"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="8"/>
-      <c r="B27" s="5"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="5"/>
       <c r="F27" s="13"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
-      <c r="B28" s="5"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="5"/>
       <c r="F28" s="13"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="5"/>
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
     </row>
@@ -1848,8 +1804,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1862,19 +1818,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1885,7 +1841,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1899,7 +1855,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1913,7 +1869,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1927,7 +1883,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1941,7 +1897,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1955,7 +1911,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1969,7 +1925,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1983,7 +1939,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
